--- a/resources/experiment 2/metrics/R2/incidence/Fallo Cardiaco (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Fallo Cardiaco (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7836240145711217</v>
+        <v>0.9210965097580663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7836240145711217</v>
+        <v>0.9194637266586801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7836240145711217</v>
+        <v>0.9000468613481928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9049533505874919</v>
+        <v>0.8229420134181807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9049532959416261</v>
+        <v>0.8181393877578844</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9049532959416261</v>
+        <v>0.5818122877977095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7307579401890169</v>
+        <v>0.8488063417379207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7307579401890169</v>
+        <v>0.8431544986279862</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7307579401890169</v>
+        <v>0.8247663922657517</v>
       </c>
     </row>
   </sheetData>
